--- a/biology/Botanique/Jardin_botanique_de_l'université_de_Vilnius/Jardin_botanique_de_l'université_de_Vilnius.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_l'université_de_Vilnius/Jardin_botanique_de_l'université_de_Vilnius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_de_Vilnius</t>
+          <t>Jardin_botanique_de_l'université_de_Vilnius</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Jardin botanique de Vilnius ou Jardin botanique de l'université de Vilnius (lituanien : Vilniaus universiteto botanikos sodas; latin : Hortus Botanicus Vilnensis Universitati ) est un jardin botanique et arboretum situé à Vilnius en Lituanie.
-Avec une superficie de 198,85 hectares, il s'agit du plus grand jardin botanique de Lituanie. Il est géré et appartient à l'université de Vilnius et abrite 11 000 taxons[1].
+Avec une superficie de 198,85 hectares, il s'agit du plus grand jardin botanique de Lituanie. Il est géré et appartient à l'université de Vilnius et abrite 11 000 taxons.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_de_Vilnius</t>
+          <t>Jardin_botanique_de_l'université_de_Vilnius</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique a été fondé en 1781 par le professeur Jean-Emmanuel Gilibert de l'université de Vilnius alors situé dans le grand-duché de Lituanie, membre de la république des Deux Nations.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_l%27universit%C3%A9_de_Vilnius</t>
+          <t>Jardin_botanique_de_l'université_de_Vilnius</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Collection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2 500 taxons dans le Département de dendrologie
 3 000 taxons dans le Département de géographie et de systématique des plantes
